--- a/Testdata/TC01_Login.xlsx
+++ b/Testdata/TC01_Login.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TestCoffee496\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DC79499-336C-4307-BF04-060BEC418524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C5A2C4F-5100-4972-ACC8-793BE01C311A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -629,7 +629,7 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1577,8 +1577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>

--- a/Testdata/TC01_Login.xlsx
+++ b/Testdata/TC01_Login.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TestCoffee496\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C5A2C4F-5100-4972-ACC8-793BE01C311A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{043229B4-6A63-44F9-87BE-5E62080A10DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="119">
   <si>
     <t>TDID</t>
   </si>
@@ -228,9 +228,6 @@
     <t>Coffee EditProfile</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>User</t>
   </si>
   <si>
@@ -252,9 +249,6 @@
     <t>เข้าสู่ระบบสำเร็จ</t>
   </si>
   <si>
-    <t>แรน่นดราแ</t>
-  </si>
-  <si>
     <t>username หรือ Password ไม่ตรงกัน</t>
   </si>
   <si>
@@ -303,27 +297,9 @@
     <t>เรชา063</t>
   </si>
   <si>
-    <t>Jom</t>
-  </si>
-  <si>
-    <t>Romsomkumjamtu123</t>
-  </si>
-  <si>
     <t>Manus</t>
   </si>
   <si>
-    <t>Manaszozaz12345</t>
-  </si>
-  <si>
-    <t>Manaszozaz123456</t>
-  </si>
-  <si>
-    <t>yuu</t>
-  </si>
-  <si>
-    <t>Uareseriosejing12</t>
-  </si>
-  <si>
     <t>Jom za</t>
   </si>
   <si>
@@ -357,15 +333,9 @@
     <t>TD024</t>
   </si>
   <si>
-    <t>Emp10</t>
-  </si>
-  <si>
     <t>TD025</t>
   </si>
   <si>
-    <t>Admin012</t>
-  </si>
-  <si>
     <t>NS</t>
   </si>
   <si>
@@ -379,6 +349,39 @@
   </si>
   <si>
     <t>กรุณากรอกชื่อผู้ใช้ หรือรหัสผ่านให้ถูกต้อง</t>
+  </si>
+  <si>
+    <t>username หรือ Password ไม่ถูกต้อง</t>
+  </si>
+  <si>
+    <t>Som</t>
+  </si>
+  <si>
+    <t>Romsomkumjamtu223</t>
+  </si>
+  <si>
+    <t>Manaszozaz12333</t>
+  </si>
+  <si>
+    <t>Manaszozaz123406</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>Uareseriosejing82</t>
+  </si>
+  <si>
+    <t>Admin522</t>
+  </si>
+  <si>
+    <t>แรน่นดาาแ</t>
+  </si>
+  <si>
+    <t>แรน่นดรา</t>
+  </si>
+  <si>
+    <t>Emp100</t>
   </si>
 </sst>
 </file>
@@ -1577,8 +1580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -1600,19 +1603,19 @@
         <v>8</v>
       </c>
       <c r="C1" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="17" t="s">
-        <v>69</v>
-      </c>
       <c r="E1" s="15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F1" s="28" t="s">
         <v>23</v>
       </c>
       <c r="G1" s="29" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="H1" s="13" t="s">
         <v>7</v>
@@ -1621,7 +1624,7 @@
         <v>11</v>
       </c>
       <c r="J1" s="30" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="20.399999999999999" customHeight="1">
@@ -1629,7 +1632,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>33</v>
@@ -1638,10 +1641,10 @@
         <v>123456</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G2" s="22"/>
       <c r="H2" s="24" t="s">
@@ -1657,19 +1660,17 @@
         <v>60</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D3" s="20">
         <v>123456785</v>
       </c>
-      <c r="E3" s="21" t="s">
-        <v>9</v>
-      </c>
+      <c r="E3" s="21"/>
       <c r="F3" s="22" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="G3" s="22"/>
       <c r="H3" s="24" t="s">
@@ -1685,19 +1686,17 @@
         <v>61</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="D4" s="6">
         <v>123456</v>
       </c>
-      <c r="E4" s="16" t="s">
-        <v>9</v>
-      </c>
+      <c r="E4" s="16"/>
       <c r="F4" s="22" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="G4" s="22"/>
       <c r="H4" s="24" t="s">
@@ -1713,19 +1712,17 @@
         <v>62</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="D5" s="6">
         <v>123456</v>
       </c>
-      <c r="E5" s="16" t="s">
-        <v>9</v>
-      </c>
+      <c r="E5" s="16"/>
       <c r="F5" s="22" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="G5" s="22"/>
       <c r="H5" s="24" t="s">
@@ -1748,10 +1745,10 @@
       </c>
       <c r="D6" s="20"/>
       <c r="E6" s="16" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="G6" s="22"/>
       <c r="H6" s="24" t="s">
@@ -1767,19 +1764,17 @@
         <v>64</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D7" s="6">
         <v>123456</v>
       </c>
-      <c r="E7" s="16" t="s">
-        <v>67</v>
-      </c>
+      <c r="E7" s="16"/>
       <c r="F7" s="22" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G7" s="22"/>
       <c r="H7" s="24" t="s">
@@ -1795,19 +1790,17 @@
         <v>65</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="D8" s="6">
         <v>123456</v>
       </c>
-      <c r="E8" s="16" t="s">
-        <v>9</v>
-      </c>
+      <c r="E8" s="16"/>
       <c r="F8" s="22" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G8" s="22"/>
       <c r="H8" s="24" t="s">
@@ -1820,22 +1813,20 @@
     </row>
     <row r="9" spans="1:10" ht="20.399999999999999" customHeight="1">
       <c r="A9" s="18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="D9" s="6">
         <v>123456</v>
       </c>
-      <c r="E9" s="16" t="s">
-        <v>9</v>
-      </c>
+      <c r="E9" s="16"/>
       <c r="F9" s="22" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G9" s="22"/>
       <c r="H9" s="24" t="s">
@@ -1848,22 +1839,20 @@
     </row>
     <row r="10" spans="1:10" ht="20.399999999999999" customHeight="1">
       <c r="A10" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="D10" s="6">
         <v>123456</v>
       </c>
-      <c r="E10" s="16" t="s">
-        <v>9</v>
-      </c>
+      <c r="E10" s="16"/>
       <c r="F10" s="22" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G10" s="22"/>
       <c r="H10" s="24" t="s">
@@ -1876,22 +1865,20 @@
     </row>
     <row r="11" spans="1:10" ht="20.399999999999999" customHeight="1">
       <c r="A11" s="18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="D11" s="6">
         <v>123456</v>
       </c>
-      <c r="E11" s="16" t="s">
-        <v>9</v>
-      </c>
+      <c r="E11" s="16"/>
       <c r="F11" s="22" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G11" s="22"/>
       <c r="H11" s="24" t="s">
@@ -1904,22 +1891,20 @@
     </row>
     <row r="12" spans="1:10" ht="20.399999999999999" customHeight="1">
       <c r="A12" s="18" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="D12" s="6">
-        <v>123456</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>9</v>
-      </c>
+        <v>123457</v>
+      </c>
+      <c r="E12" s="16"/>
       <c r="F12" s="22" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G12" s="22"/>
       <c r="H12" s="24" t="s">
@@ -1932,7 +1917,7 @@
     </row>
     <row r="13" spans="1:10" ht="20.399999999999999" customHeight="1">
       <c r="A13" s="18" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>9</v>
@@ -1942,10 +1927,10 @@
         <v>123456</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="G13" s="22"/>
       <c r="H13" s="24" t="s">
@@ -1958,10 +1943,10 @@
     </row>
     <row r="14" spans="1:10" ht="15">
       <c r="A14" s="18" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>33</v>
@@ -1970,10 +1955,10 @@
         <v>123456</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F14" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G14" s="23"/>
       <c r="H14" s="24" t="s">
@@ -1986,22 +1971,22 @@
     </row>
     <row r="15" spans="1:10" ht="15">
       <c r="A15" s="18" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D15" s="6">
         <v>123456</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F15" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G15" s="31"/>
       <c r="H15" s="24" t="s">
@@ -2014,22 +1999,22 @@
     </row>
     <row r="16" spans="1:10" ht="15">
       <c r="A16" s="18" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D16" s="6">
         <v>123456</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="F16" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G16" s="31"/>
       <c r="H16" s="24" t="s">
@@ -2042,22 +2027,22 @@
     </row>
     <row r="17" spans="1:10" ht="15">
       <c r="A17" s="18" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D17" s="6">
         <v>123456</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="F17" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G17" s="31"/>
       <c r="H17" s="24" t="s">
@@ -2070,22 +2055,22 @@
     </row>
     <row r="18" spans="1:10" ht="15">
       <c r="A18" s="18" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D18" s="6">
         <v>123456</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="F18" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G18" s="31"/>
       <c r="H18" s="24" t="s">
@@ -2098,22 +2083,22 @@
     </row>
     <row r="19" spans="1:10" ht="15">
       <c r="A19" s="18" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D19" s="6">
         <v>123456</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F19" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G19" s="31"/>
       <c r="H19" s="24" t="s">
@@ -2126,22 +2111,20 @@
     </row>
     <row r="20" spans="1:10" ht="15">
       <c r="A20" s="18" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>75</v>
+        <v>116</v>
       </c>
       <c r="D20" s="6">
         <v>123456</v>
       </c>
-      <c r="E20" s="16" t="s">
-        <v>67</v>
-      </c>
+      <c r="E20" s="16"/>
       <c r="F20" s="31" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G20" s="31"/>
       <c r="H20" s="24" t="s">
@@ -2154,22 +2137,20 @@
     </row>
     <row r="21" spans="1:10" ht="15">
       <c r="A21" s="18" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>75</v>
+        <v>117</v>
       </c>
       <c r="D21" s="6">
         <v>123457</v>
       </c>
-      <c r="E21" s="16" t="s">
-        <v>67</v>
-      </c>
+      <c r="E21" s="16"/>
       <c r="F21" s="31" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G21" s="31"/>
       <c r="H21" s="24" t="s">
@@ -2182,22 +2163,22 @@
     </row>
     <row r="22" spans="1:10" ht="17.399999999999999" customHeight="1">
       <c r="A22" s="18" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D22" s="6">
         <v>123456</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F22" s="31" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="G22" s="31"/>
       <c r="H22" s="24" t="s">
@@ -2210,22 +2191,22 @@
     </row>
     <row r="23" spans="1:10" ht="17.399999999999999" customHeight="1">
       <c r="A23" s="18" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" s="6">
         <v>123456</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="F23" s="31" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="G23" s="31"/>
       <c r="H23" s="24" t="s">
@@ -2238,22 +2219,20 @@
     </row>
     <row r="24" spans="1:10" ht="17.399999999999999" customHeight="1">
       <c r="A24" s="18" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D24" s="6">
         <v>123456</v>
       </c>
-      <c r="E24" s="16" t="s">
-        <v>67</v>
-      </c>
+      <c r="E24" s="16"/>
       <c r="F24" s="31" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G24" s="31"/>
       <c r="H24" s="24" t="s">
@@ -2266,22 +2245,20 @@
     </row>
     <row r="25" spans="1:10" ht="17.399999999999999" customHeight="1">
       <c r="A25" s="18" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="D25" s="6">
         <v>123456</v>
       </c>
-      <c r="E25" s="16" t="s">
-        <v>67</v>
-      </c>
+      <c r="E25" s="16"/>
       <c r="F25" s="31" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G25" s="31"/>
       <c r="H25" s="24" t="s">
@@ -2294,22 +2271,22 @@
     </row>
     <row r="26" spans="1:10" ht="17.399999999999999" customHeight="1">
       <c r="A26" s="18" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D26" s="6">
         <v>123456</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="F26" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G26" s="31"/>
       <c r="H26" s="24" t="s">
